--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -94,25 +94,25 @@
     <t>love</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>help</t>
@@ -1134,25 +1134,25 @@
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.70995670995671</v>
+        <v>0.7092198581560284</v>
       </c>
       <c r="L11">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="N11">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,25 +1160,25 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7092198581560284</v>
+        <v>0.6861924686192469</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1238,25 +1238,25 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.5914634146341463</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L15">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,25 +1264,25 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.5833333333333334</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1290,25 +1290,25 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.5747126436781609</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="M17">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="10:17">
